--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/exam.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/exam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27810" windowHeight="9525"/>
+    <workbookView windowWidth="20865" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,8 +75,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -89,7 +89,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,47 +117,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,6 +131,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -163,15 +169,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,50 +209,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -241,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +432,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,6 +455,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,44 +507,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,21 +532,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,138 +552,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,221 +1040,223 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="16.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>10001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>10002</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>-1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>10002</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>10003</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>10001</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>10003</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>10004</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>10002</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>10004</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>10005</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>10003</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>10005</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>10006</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>10004</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>10006</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>25</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>10007</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>10005</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>10007</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>30</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>10008</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>10006</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>10008</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>35</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>10009</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>10007</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>10009</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>40</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>-1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>10008</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/exam.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/exam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20865" windowHeight="11400"/>
+    <workbookView windowWidth="27360" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -39,34 +39,64 @@
     <t>cost</t>
   </si>
   <si>
+    <t>award</t>
+  </si>
+  <si>
     <t>模拟题1</t>
   </si>
   <si>
     <t>10005|25</t>
   </si>
   <si>
+    <t>10001|720</t>
+  </si>
+  <si>
     <t>模拟题2</t>
   </si>
   <si>
+    <t>10001|1040</t>
+  </si>
+  <si>
     <t>模拟题3</t>
   </si>
   <si>
+    <t>10001|1440</t>
+  </si>
+  <si>
     <t>模拟题4</t>
   </si>
   <si>
+    <t>10001|1840</t>
+  </si>
+  <si>
     <t>模拟题5</t>
   </si>
   <si>
+    <t>10001|2240</t>
+  </si>
+  <si>
     <t>模拟题6</t>
   </si>
   <si>
+    <t>10001|2640</t>
+  </si>
+  <si>
     <t>模拟题7</t>
   </si>
   <si>
+    <t>10001|3040</t>
+  </si>
+  <si>
     <t>模拟题8</t>
   </si>
   <si>
+    <t>10001|3440</t>
+  </si>
+  <si>
     <t>模拟题9</t>
+  </si>
+  <si>
+    <t>10001|3840</t>
   </si>
 </sst>
 </file>
@@ -75,8 +105,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -88,6 +118,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -95,6 +141,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -102,6 +164,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -109,15 +193,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,101 +249,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,31 +271,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +427,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,139 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +462,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,39 +504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -503,6 +515,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,6 +545,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -540,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,13 +1067,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="16.875" style="1" customWidth="1"/>
@@ -1051,10 +1081,11 @@
     <col min="5" max="5" width="16.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="11.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,8 +1107,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>10001</v>
       </c>
@@ -1091,16 +1125,19 @@
         <v>-1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>10002</v>
       </c>
@@ -1114,13 +1151,16 @@
         <v>10001</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>10003</v>
       </c>
@@ -1134,13 +1174,16 @@
         <v>10002</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>10004</v>
       </c>
@@ -1154,13 +1197,16 @@
         <v>10003</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>10005</v>
       </c>
@@ -1174,13 +1220,16 @@
         <v>10004</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>10006</v>
       </c>
@@ -1194,13 +1243,16 @@
         <v>10005</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>10007</v>
       </c>
@@ -1214,13 +1266,16 @@
         <v>10006</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>10008</v>
       </c>
@@ -1234,13 +1289,16 @@
         <v>10007</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>10009</v>
       </c>
@@ -1254,10 +1312,13 @@
         <v>10008</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/exam.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/exam.xlsx
@@ -45,7 +45,7 @@
     <t>模拟题1</t>
   </si>
   <si>
-    <t>10005|25</t>
+    <t>10005|-25</t>
   </si>
   <si>
     <t>10001|720</t>
@@ -104,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -118,11 +118,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,60 +186,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,40 +202,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,8 +247,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,43 +271,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,139 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,60 +462,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,11 +489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +514,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
